--- a/output/fit_clients/fit_round_307.xlsx
+++ b/output/fit_clients/fit_round_307.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2119120543.343829</v>
+        <v>1586277746.644241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09633044126122257</v>
+        <v>0.1029142368354298</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03185718801208935</v>
+        <v>0.04374964309898901</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1059560283.334334</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1966025564.452943</v>
+        <v>2492493280.777702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1497725028999136</v>
+        <v>0.1175881309303565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03924641081178212</v>
+        <v>0.04334672062566862</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>983012817.0242974</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4303524549.840515</v>
+        <v>3235901818.390815</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1219729484221946</v>
+        <v>0.1329838644687452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03278244652705943</v>
+        <v>0.02462398493051812</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>111</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2151762310.59788</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3446284318.080617</v>
+        <v>3041994908.89237</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09502087917883575</v>
+        <v>0.07096711760157141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04241771043797572</v>
+        <v>0.04611982055558554</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1723142199.374805</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2578180351.913396</v>
+        <v>2593890901.486142</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1216324710806288</v>
+        <v>0.1278955854243161</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03473285094888026</v>
+        <v>0.04661022494725265</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>58</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1289090142.980947</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2946830823.282163</v>
+        <v>2338645926.335546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07620375660740611</v>
+        <v>0.07238971995120838</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03803761942704204</v>
+        <v>0.03996404707163682</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>96</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1473415381.642497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3626433709.309591</v>
+        <v>3596827966.196869</v>
       </c>
       <c r="F8" t="n">
-        <v>0.192987517052527</v>
+        <v>0.1617028351305645</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03007959421926066</v>
+        <v>0.02355542266302335</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1813216976.210392</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1774528354.225925</v>
+        <v>1553246620.453884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1659815531749459</v>
+        <v>0.1459034240892632</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03599663497162365</v>
+        <v>0.03267428466402908</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>887264235.0008786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3779430271.215298</v>
+        <v>4809564879.674598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2090352452535668</v>
+        <v>0.1344827505332592</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03405856217775462</v>
+        <v>0.03509753946535055</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>129</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1889715140.419958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2979624943.223744</v>
+        <v>3176639456.9475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1767251074935429</v>
+        <v>0.1335765764309405</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0457077405520502</v>
+        <v>0.04257339599753949</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>127</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1489812413.14114</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2369084852.3366</v>
+        <v>2211221313.918779</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1805543988652993</v>
+        <v>0.1629931315027923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04573021082878533</v>
+        <v>0.04653678262314965</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>105</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1184542386.391603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4880856645.315178</v>
+        <v>5253468978.639676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06537136951330641</v>
+        <v>0.09961077722987738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0280150592243966</v>
+        <v>0.02255364833121721</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>103</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2440428332.842838</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3793077917.537947</v>
+        <v>2907315589.724756</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1139288737156626</v>
+        <v>0.1767256131241848</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03474598887227488</v>
+        <v>0.0407242341773711</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1896538935.782223</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1841298156.157829</v>
+        <v>1769132902.099354</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1030399303130625</v>
+        <v>0.07332283503193289</v>
       </c>
       <c r="G15" t="n">
-        <v>0.035172284322613</v>
+        <v>0.04770123865460923</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>920649240.9567863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2457097022.644773</v>
+        <v>2482504618.868731</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1093428248394568</v>
+        <v>0.09227025482739627</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03673881751090782</v>
+        <v>0.0450217950180644</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1228548545.970399</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3232505729.0185</v>
+        <v>4322948024.200783</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1182344029442507</v>
+        <v>0.10959771447219</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0486592272415192</v>
+        <v>0.03985077254461993</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>90</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1616252937.038197</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3029379714.788724</v>
+        <v>3886797366.413307</v>
       </c>
       <c r="F18" t="n">
-        <v>0.134428800402331</v>
+        <v>0.1350957521098172</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02107997930959811</v>
+        <v>0.02845947474558185</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>100</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1514689885.50622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1032896432.010044</v>
+        <v>1103832243.042222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1594007903895978</v>
+        <v>0.144833491075952</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02254525867788154</v>
+        <v>0.01673119932094534</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>516448253.2440942</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1776746597.922228</v>
+        <v>1698030526.378268</v>
       </c>
       <c r="F20" t="n">
-        <v>0.110604473127774</v>
+        <v>0.144233212575918</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0218242291183654</v>
+        <v>0.02404445017115578</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>888373349.1002409</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2198508846.481113</v>
+        <v>1695809238.411403</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07019887722683796</v>
+        <v>0.07319147073351578</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02851294591066908</v>
+        <v>0.03507104685293799</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1099254440.206936</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2835677757.978272</v>
+        <v>3154165472.390642</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1205452010760932</v>
+        <v>0.09580861224049599</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03537907164159936</v>
+        <v>0.03677114373763307</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1417838950.365583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1495038406.007456</v>
+        <v>1008782715.383512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1540390304298487</v>
+        <v>0.1831695151046586</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0529021482511246</v>
+        <v>0.03413517675107972</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>747519189.7843299</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3786477268.196136</v>
+        <v>3298420642.724015</v>
       </c>
       <c r="F24" t="n">
-        <v>0.140145849663022</v>
+        <v>0.1107734121872048</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03541735167963094</v>
+        <v>0.03025317670499798</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>90</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1893238616.450009</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1483774506.645272</v>
+        <v>1240578247.298438</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1029986007110646</v>
+        <v>0.08180123340403178</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02081067266176742</v>
+        <v>0.01873846391638901</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>741887205.9944432</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1057260212.158171</v>
+        <v>1310361819.330493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1086998562245077</v>
+        <v>0.08527461524441032</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02938138555912038</v>
+        <v>0.02959576666044294</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>528630092.1504308</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3092521501.715919</v>
+        <v>3576730763.027545</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09873021491270292</v>
+        <v>0.1100907023502847</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02702390978373284</v>
+        <v>0.01745577816567086</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>72</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1546260806.074018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3491198192.585887</v>
+        <v>2529535591.930338</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1309005271441193</v>
+        <v>0.1373099699597589</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04210345712172008</v>
+        <v>0.04817751777401516</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1745599150.185143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5123321379.0338</v>
+        <v>5058112024.927366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09422576218627028</v>
+        <v>0.1277185370476854</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03002699272578253</v>
+        <v>0.03728516714667936</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>135</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2561660628.517075</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2057828730.298718</v>
+        <v>1912619536.617938</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1317606610445257</v>
+        <v>0.09933700587318986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03817311716656473</v>
+        <v>0.03076936022597427</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1028914409.197075</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1153665800.583416</v>
+        <v>1343798932.6698</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0713254577291811</v>
+        <v>0.08379013386206571</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05082261922181091</v>
+        <v>0.03500741322065629</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>576832862.6705916</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1553938456.81973</v>
+        <v>1648512807.042986</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07740862568033653</v>
+        <v>0.07879039654077252</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02525076054409556</v>
+        <v>0.02543489079839475</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>776969307.9476813</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2870744711.605923</v>
+        <v>2988057072.937192</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14005438727682</v>
+        <v>0.1284402647404229</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05661163449250124</v>
+        <v>0.04828148049970305</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>90</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1435372362.425036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1473709824.716743</v>
+        <v>1331930476.4927</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0947210335214982</v>
+        <v>0.09176997876386239</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02536275331658233</v>
+        <v>0.02606035185175918</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>736854872.499716</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1005094458.546802</v>
+        <v>1332203507.55024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09247290247115605</v>
+        <v>0.09139122467599288</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03688442068341078</v>
+        <v>0.03502968528457796</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>502547246.7309754</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2006353186.424475</v>
+        <v>2528071008.88854</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1447492379030053</v>
+        <v>0.1471241032696079</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0202420178935405</v>
+        <v>0.01801953019633583</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>77</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1003176654.74352</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2598839231.50483</v>
+        <v>2709086505.647574</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1049341904564115</v>
+        <v>0.07319144526629824</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03578034489114962</v>
+        <v>0.03644121042045148</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>80</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1299419725.417234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1892805491.802748</v>
+        <v>1346844946.539396</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1075961368660727</v>
+        <v>0.08580032946014078</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02569073924396283</v>
+        <v>0.03839056738008095</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>946402739.6708575</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1658571870.800336</v>
+        <v>1478939491.200718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1198745926979932</v>
+        <v>0.1346886465696126</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0259794813577724</v>
+        <v>0.03089974065503014</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>829285981.7549957</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1545165511.641273</v>
+        <v>1823962582.332642</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1619886339294052</v>
+        <v>0.133772542360338</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03839501314600798</v>
+        <v>0.03709921506094735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>772582710.696631</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2431218165.867919</v>
+        <v>1986623125.703447</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1527817293234487</v>
+        <v>0.1059867152922623</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04421812811134049</v>
+        <v>0.04175434906714234</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>76</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1215609114.948507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2633783031.978839</v>
+        <v>3183700842.517993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1243525180852813</v>
+        <v>0.09833521411102186</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03906319940145765</v>
+        <v>0.03246483822518886</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1316891451.217283</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1995233147.660464</v>
+        <v>3056935317.42959</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1963652415259826</v>
+        <v>0.2056305702118862</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02595160588981972</v>
+        <v>0.02230343367563514</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>997616673.2633963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2226369036.897336</v>
+        <v>1534997751.361932</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06604683931681438</v>
+        <v>0.06202122709284014</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03327879854584723</v>
+        <v>0.03063866721520536</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1113184669.946607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2467496727.353123</v>
+        <v>2239854013.857156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1474322987766732</v>
+        <v>0.1418616662314735</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05599320708146305</v>
+        <v>0.04842070386509323</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1233748401.642246</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5399177928.134203</v>
+        <v>4652812272.088353</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1755591584317985</v>
+        <v>0.1320614409397518</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03814963860220248</v>
+        <v>0.06044176251715139</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>109</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2699589013.721121</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3481289125.649412</v>
+        <v>4251864654.862448</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1233072530444266</v>
+        <v>0.1766607589829144</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03664849394416255</v>
+        <v>0.05587172238553754</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>82</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1740644532.550335</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4171010729.645959</v>
+        <v>4289487386.997636</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09625792715922106</v>
+        <v>0.07174409802390369</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03267613335672166</v>
+        <v>0.03915026138073077</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>100</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2085505389.242644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1851319668.448955</v>
+        <v>1411112982.308675</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867793752953907</v>
+        <v>0.1481835350160584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03806954335931008</v>
+        <v>0.0422980073314513</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>925659811.6404355</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3739070134.613056</v>
+        <v>3447927015.465581</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1285101727520861</v>
+        <v>0.1550135177770713</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04424862006937521</v>
+        <v>0.05340810999443091</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>104</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1869535074.578214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080809992.13233</v>
+        <v>956569859.5470638</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1695468283986022</v>
+        <v>0.1558968847990412</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03890332998044162</v>
+        <v>0.05197992687360265</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>540405066.9364128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4057025296.246296</v>
+        <v>4614026624.47772</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0959431189261767</v>
+        <v>0.1103016131550339</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04607989957858918</v>
+        <v>0.05480700892939912</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>126</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2028512701.251993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807615218.248047</v>
+        <v>2840174252.127007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1630155755585559</v>
+        <v>0.1976121161339175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02440732448414039</v>
+        <v>0.02205420789880109</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1903807585.823627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4389091420.583938</v>
+        <v>3619933791.758683</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1205352592221811</v>
+        <v>0.1279583618887297</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05077358031659417</v>
+        <v>0.0523246319714109</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2194545804.930806</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4550523954.94618</v>
+        <v>4914827827.790467</v>
       </c>
       <c r="F55" t="n">
-        <v>0.154018088722091</v>
+        <v>0.1618115215761684</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02435058864700834</v>
+        <v>0.02489076849939966</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2275261976.669509</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1638267533.793166</v>
+        <v>1343937141.150216</v>
       </c>
       <c r="F56" t="n">
-        <v>0.141265782283603</v>
+        <v>0.1035950858004122</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05304184815747617</v>
+        <v>0.03972379654929339</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>819133788.6386616</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3135174036.249052</v>
+        <v>4481179917.570518</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1196350488941158</v>
+        <v>0.1625015677439765</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02728543957118278</v>
+        <v>0.02402779120375598</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>97</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1567587033.87916</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1447058071.697578</v>
+        <v>1318071079.015548</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1926639583468494</v>
+        <v>0.1809516070976991</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02879823568441808</v>
+        <v>0.02640642332598221</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>723529071.8093904</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4187711600.56691</v>
+        <v>5160099781.011997</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1071667422579532</v>
+        <v>0.09176044952310303</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04872509845809726</v>
+        <v>0.03470473645431432</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2093855767.163499</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3468173535.951535</v>
+        <v>3079205091.126087</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1287344190935377</v>
+        <v>0.1460001901201023</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03021633581087675</v>
+        <v>0.02246212027959084</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>95</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1734086887.437193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2063539276.819097</v>
+        <v>3284347418.525068</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1468009893401049</v>
+        <v>0.1587796910903698</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02677842328209582</v>
+        <v>0.02936893849882064</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>105</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1031769707.196974</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2048508765.818575</v>
+        <v>1607918955.548598</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1561795302027379</v>
+        <v>0.1541939785667556</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03278525979242948</v>
+        <v>0.04168252219589461</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1024254448.269662</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4220401294.154817</v>
+        <v>4016756969.319335</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09561510280686246</v>
+        <v>0.09177821928249112</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04487854016433472</v>
+        <v>0.04415746088973286</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2110200699.613508</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3386345515.593541</v>
+        <v>3554715136.901675</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1485785293010737</v>
+        <v>0.1760637378546112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02871329153770007</v>
+        <v>0.03128653844818101</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>95</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1693172750.496025</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5027045333.825396</v>
+        <v>5916383854.625816</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1072563042975449</v>
+        <v>0.1088956322768507</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0195802134343424</v>
+        <v>0.02262723487124932</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>111</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2513522624.219226</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3741648062.536746</v>
+        <v>5560871965.26943</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1432021539429608</v>
+        <v>0.161797249456222</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0511224339033888</v>
+        <v>0.0323960291266257</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>89</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1870823991.010741</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2475571616.390983</v>
+        <v>2519830771.434616</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1019818898781677</v>
+        <v>0.09491985426943872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0397297236965501</v>
+        <v>0.04204148246008493</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>98</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1237785870.895545</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3878862738.939691</v>
+        <v>4111925894.730506</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1444765915809071</v>
+        <v>0.1468798721435892</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04317897827649976</v>
+        <v>0.03794865301561069</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1939431357.912288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2354171863.196297</v>
+        <v>1825319757.791347</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779632133806081</v>
+        <v>0.1369913907086396</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03776526522466359</v>
+        <v>0.05914459726886936</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1177085982.374267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2541273843.027934</v>
+        <v>2595741205.160839</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07819945699240344</v>
+        <v>0.07102741595476214</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03323781410398012</v>
+        <v>0.03343406055981156</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>88</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1270636868.631522</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5184985968.752645</v>
+        <v>3409731771.183311</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1376830604542053</v>
+        <v>0.1293367318056676</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02893510472780915</v>
+        <v>0.0299971387925231</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2592493103.928426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1530171294.096815</v>
+        <v>1991047107.677268</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07094312383833463</v>
+        <v>0.08108512221375976</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04648383886357879</v>
+        <v>0.05251898205082327</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>765085669.18021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2526379138.268388</v>
+        <v>2281431302.658117</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1100538020836041</v>
+        <v>0.105859526358349</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0490084349426008</v>
+        <v>0.04272331535077822</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>117</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1263189608.473926</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3675753565.937523</v>
+        <v>2519930605.290894</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1272797265800684</v>
+        <v>0.1125273967244978</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02519876696427699</v>
+        <v>0.03255727687876962</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>104</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1837876789.916736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2118159367.852091</v>
+        <v>1589276039.066209</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1204925941698</v>
+        <v>0.1242473168834081</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03166561463058627</v>
+        <v>0.03479704573366116</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1059079636.985603</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4439935040.968349</v>
+        <v>3634843163.250852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.123592127163348</v>
+        <v>0.106535806365018</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02667130376030484</v>
+        <v>0.02565528658373133</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2219967523.67516</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1610809959.859659</v>
+        <v>1750397675.754621</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1249955670553033</v>
+        <v>0.1690660898021848</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02357466708666587</v>
+        <v>0.02011852015577939</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>805404984.0158755</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3472984345.232551</v>
+        <v>4127205662.587911</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1217107509678734</v>
+        <v>0.08883451880608143</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03708750954172367</v>
+        <v>0.03474763726824704</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>106</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1736492176.040876</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1655794149.693777</v>
+        <v>1543014449.33298</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1327029302828771</v>
+        <v>0.1369993248788243</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02905595192293717</v>
+        <v>0.02517335400469319</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>827897136.3257508</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5127777317.488447</v>
+        <v>4240378279.221333</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1010614384860019</v>
+        <v>0.08504493198174073</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03409363640687472</v>
+        <v>0.0301786062120228</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2563888714.29566</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3748601593.098719</v>
+        <v>4028883205.879359</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1012117661785319</v>
+        <v>0.08628713167820755</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03003173873992313</v>
+        <v>0.03259838382589672</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1874300750.410275</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4737525229.198289</v>
+        <v>4697771435.736422</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1468735211922331</v>
+        <v>0.2080877106315838</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02148114341749254</v>
+        <v>0.02879484377936552</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>108</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2368762613.214252</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2160906653.370889</v>
+        <v>2078533033.702864</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1388808960610078</v>
+        <v>0.1213556392416581</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03170699624312458</v>
+        <v>0.03858761380317955</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1080453332.046306</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2188878823.5408</v>
+        <v>2137574588.315686</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1126137469458276</v>
+        <v>0.09305671066106704</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04216096371847221</v>
+        <v>0.05083089434863403</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1094439389.161987</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2733614047.07902</v>
+        <v>2643436450.944283</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1296288671234461</v>
+        <v>0.1812616328750968</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04043277643958944</v>
+        <v>0.0535409645411432</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>116</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1366807054.305153</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2376202215.726494</v>
+        <v>2305897598.08922</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1335380724059198</v>
+        <v>0.1110469081147007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01996428951416619</v>
+        <v>0.02317166142131745</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1188101187.816039</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1048803195.282121</v>
+        <v>1306895652.224594</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1695001368443649</v>
+        <v>0.1517110688056207</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04040741882882567</v>
+        <v>0.04131085073078262</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>524401614.4716893</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3073322094.885316</v>
+        <v>3295802805.175527</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1192043180497228</v>
+        <v>0.1646388361821834</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03033336904509757</v>
+        <v>0.02964182415213977</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>122</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1536661085.130471</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2841256499.155708</v>
+        <v>2986186251.051898</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1586260391884853</v>
+        <v>0.1053299430499673</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03107495106023443</v>
+        <v>0.02968912717696599</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1420628299.316468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1864916292.837948</v>
+        <v>1316136910.956313</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1198692984623088</v>
+        <v>0.104023784264336</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05385793464387718</v>
+        <v>0.04845746080633554</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>932458191.9147165</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1763496907.644497</v>
+        <v>1657604697.544271</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1886744881294687</v>
+        <v>0.1575745856176929</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04400962164787054</v>
+        <v>0.05177675168413081</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>881748457.6366285</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2842567323.938993</v>
+        <v>2769127347.889362</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07836003136514134</v>
+        <v>0.06761225766221865</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03010192886591752</v>
+        <v>0.03493625018824098</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>79</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1421283671.841242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4348632497.274567</v>
+        <v>3170214902.157194</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09515308514077823</v>
+        <v>0.1156004783393243</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03419599208590349</v>
+        <v>0.03827695299512578</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2174316226.713657</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2179819413.159732</v>
+        <v>1824767442.050428</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1448048362473862</v>
+        <v>0.1207885163138161</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03883688020125094</v>
+        <v>0.02900926587815516</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1089909728.313431</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2364975441.137917</v>
+        <v>2467194453.579859</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08338246489619504</v>
+        <v>0.1361274410807795</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05001819303191055</v>
+        <v>0.04469662766989459</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1182487766.466997</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2187420026.908783</v>
+        <v>1539701978.60491</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245177327494666</v>
+        <v>0.1161440520373722</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04629724193022686</v>
+        <v>0.04274140127412773</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1093709980.429034</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5088674130.138319</v>
+        <v>4012871095.940618</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1581995693005212</v>
+        <v>0.1433143378784602</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02709111268549437</v>
+        <v>0.02757462816993581</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2544337209.000453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3084648779.907604</v>
+        <v>3404867284.048224</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1181397492638546</v>
+        <v>0.08890119688703597</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02760661007378736</v>
+        <v>0.02624698668242833</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>81</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1542324380.374892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2533881684.644759</v>
+        <v>2335056449.403198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1319520331668798</v>
+        <v>0.1088758798565954</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02787328865802932</v>
+        <v>0.03231307469761798</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1266940794.512262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3864237488.924026</v>
+        <v>3707456189.059658</v>
       </c>
       <c r="F100" t="n">
-        <v>0.120859202645793</v>
+        <v>0.1790931655084726</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01773712359062092</v>
+        <v>0.02210874611910332</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1932118804.310298</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3333134528.617246</v>
+        <v>2203833645.728258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2125524917044612</v>
+        <v>0.1964114606006742</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04824806423085896</v>
+        <v>0.05527781230528354</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>122</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1666567397.395991</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_307.xlsx
+++ b/output/fit_clients/fit_round_307.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1586277746.644241</v>
+        <v>1813321045.699245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1029142368354298</v>
+        <v>0.1056254832888012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04374964309898901</v>
+        <v>0.03213214932832929</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2492493280.777702</v>
+        <v>2568578878.53868</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1175881309303565</v>
+        <v>0.12953755528567</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04334672062566862</v>
+        <v>0.04938575832887365</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3235901818.390815</v>
+        <v>4327745126.433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1329838644687452</v>
+        <v>0.1404949316893883</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02462398493051812</v>
+        <v>0.02305782132487458</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3041994908.89237</v>
+        <v>3539256240.265812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07096711760157141</v>
+        <v>0.07919248810833274</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04611982055558554</v>
+        <v>0.04091079345007546</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2593890901.486142</v>
+        <v>2474802477.607127</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1278955854243161</v>
+        <v>0.1047627148589886</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04661022494725265</v>
+        <v>0.05655412090837619</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2338645926.335546</v>
+        <v>2151362044.044682</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07238971995120838</v>
+        <v>0.08955013352613847</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03996404707163682</v>
+        <v>0.04687573608515766</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3596827966.196869</v>
+        <v>3928134784.06557</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1617028351305645</v>
+        <v>0.1812430562833547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02355542266302335</v>
+        <v>0.02083421041219647</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1553246620.453884</v>
+        <v>2106609807.467106</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1459034240892632</v>
+        <v>0.130084551504346</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03267428466402908</v>
+        <v>0.03290063260250085</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4809564879.674598</v>
+        <v>4163267357.490786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344827505332592</v>
+        <v>0.1547133205423302</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03509753946535055</v>
+        <v>0.04696831878678356</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3176639456.9475</v>
+        <v>3740939872.39058</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1335765764309405</v>
+        <v>0.1266944549405495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04257339599753949</v>
+        <v>0.03876465320352749</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2211221313.918779</v>
+        <v>2216838827.001305</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1629931315027923</v>
+        <v>0.1447329086264341</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04653678262314965</v>
+        <v>0.04828451870555622</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5253468978.639676</v>
+        <v>3641340598.164582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09961077722987738</v>
+        <v>0.08096003175328047</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02255364833121721</v>
+        <v>0.02949518681614371</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2907315589.724756</v>
+        <v>3014473580.898561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1767256131241848</v>
+        <v>0.1757530766992373</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0407242341773711</v>
+        <v>0.03134821531207884</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1769132902.099354</v>
+        <v>1697836616.401121</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07332283503193289</v>
+        <v>0.08561536313215384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04770123865460923</v>
+        <v>0.03827326695809124</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2482504618.868731</v>
+        <v>2155001529.789433</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09227025482739627</v>
+        <v>0.1119167015458297</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0450217950180644</v>
+        <v>0.03232444710261913</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4322948024.200783</v>
+        <v>4209517873.75908</v>
       </c>
       <c r="F17" t="n">
-        <v>0.10959771447219</v>
+        <v>0.1632300159103501</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03985077254461993</v>
+        <v>0.04262629940655598</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3886797366.413307</v>
+        <v>3111536422.540487</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1350957521098172</v>
+        <v>0.1543288529127673</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02845947474558185</v>
+        <v>0.03339247433211164</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1103832243.042222</v>
+        <v>1082970641.099916</v>
       </c>
       <c r="F19" t="n">
-        <v>0.144833491075952</v>
+        <v>0.1320199524500725</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01673119932094534</v>
+        <v>0.02073730299747689</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1698030526.378268</v>
+        <v>2069930262.313878</v>
       </c>
       <c r="F20" t="n">
-        <v>0.144233212575918</v>
+        <v>0.1588476433466899</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02404445017115578</v>
+        <v>0.02349656150516929</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1695809238.411403</v>
+        <v>2204645267.189454</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07319147073351578</v>
+        <v>0.08755941514619893</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03507104685293799</v>
+        <v>0.04531610633956689</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3154165472.390642</v>
+        <v>2688945960.646132</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09580861224049599</v>
+        <v>0.08818661820872198</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03677114373763307</v>
+        <v>0.04165050451663345</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1008782715.383512</v>
+        <v>1547258022.703152</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1831695151046586</v>
+        <v>0.1754782086557531</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03413517675107972</v>
+        <v>0.03728835688188142</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3298420642.724015</v>
+        <v>3315097532.942479</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1107734121872048</v>
+        <v>0.09048753843370082</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03025317670499798</v>
+        <v>0.02550541908267681</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1240578247.298438</v>
+        <v>962542348.1084456</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08180123340403178</v>
+        <v>0.0892830964650641</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01873846391638901</v>
+        <v>0.02605555557936602</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1310361819.330493</v>
+        <v>1026339689.227577</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08527461524441032</v>
+        <v>0.09722318769233947</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02959576666044294</v>
+        <v>0.0262158906800611</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3576730763.027545</v>
+        <v>3697366641.963164</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1100907023502847</v>
+        <v>0.137817137848992</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01745577816567086</v>
+        <v>0.02610083580939103</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2529535591.930338</v>
+        <v>3495751707.055806</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373099699597589</v>
+        <v>0.1407847135579536</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04817751777401516</v>
+        <v>0.03199609053853284</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5058112024.927366</v>
+        <v>3680483763.027212</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1277185370476854</v>
+        <v>0.1118131895906744</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03728516714667936</v>
+        <v>0.03927784858278836</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1912619536.617938</v>
+        <v>1461441827.347387</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09933700587318986</v>
+        <v>0.1124375663309315</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03076936022597427</v>
+        <v>0.03971601456511241</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1343798932.6698</v>
+        <v>1349534159.768593</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08379013386206571</v>
+        <v>0.07944553264485989</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03500741322065629</v>
+        <v>0.04224891304454981</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1648512807.042986</v>
+        <v>1205434281.241184</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07879039654077252</v>
+        <v>0.09215829825044831</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02543489079839475</v>
+        <v>0.03159229938533396</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2988057072.937192</v>
+        <v>2114224776.072176</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1284402647404229</v>
+        <v>0.1687892295453843</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04828148049970305</v>
+        <v>0.04060527108196294</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1331930476.4927</v>
+        <v>1011637856.872031</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09176997876386239</v>
+        <v>0.08296358401003755</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02606035185175918</v>
+        <v>0.01859716287373697</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1332203507.55024</v>
+        <v>953586015.8465682</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09139122467599288</v>
+        <v>0.07528433912207329</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03502968528457796</v>
+        <v>0.03354927088428927</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2528071008.88854</v>
+        <v>2166321546.067311</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1471241032696079</v>
+        <v>0.1436986416194649</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01801953019633583</v>
+        <v>0.02026766678266829</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2709086505.647574</v>
+        <v>2502120082.054216</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07319144526629824</v>
+        <v>0.0772841878368563</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03644121042045148</v>
+        <v>0.02897522558117503</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1346844946.539396</v>
+        <v>1940859793.993671</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08580032946014078</v>
+        <v>0.1072321140597828</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03839056738008095</v>
+        <v>0.03444471667426293</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1478939491.200718</v>
+        <v>2193298540.169892</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1346886465696126</v>
+        <v>0.1310576542485484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03089974065503014</v>
+        <v>0.02429265086055506</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1823962582.332642</v>
+        <v>1461980767.212923</v>
       </c>
       <c r="F40" t="n">
-        <v>0.133772542360338</v>
+        <v>0.1081538492585549</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03709921506094735</v>
+        <v>0.04829350661340101</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1986623125.703447</v>
+        <v>2727558155.838104</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1059867152922623</v>
+        <v>0.1656663197094188</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04175434906714234</v>
+        <v>0.03270083491038522</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3183700842.517993</v>
+        <v>3473778220.495858</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09833521411102186</v>
+        <v>0.1128870482937309</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03246483822518886</v>
+        <v>0.03384846365117761</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3056935317.42959</v>
+        <v>2243890826.158214</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2056305702118862</v>
+        <v>0.1620804348223098</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02230343367563514</v>
+        <v>0.01948395760469207</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1534997751.361932</v>
+        <v>2279781220.715204</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06202122709284014</v>
+        <v>0.07880139229503441</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03063866721520536</v>
+        <v>0.03058392310162168</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2239854013.857156</v>
+        <v>2416736090.264214</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1418616662314735</v>
+        <v>0.1553481695307352</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04842070386509323</v>
+        <v>0.04358739576665055</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4652812272.088353</v>
+        <v>5037348905.375824</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1320614409397518</v>
+        <v>0.1125371016475892</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06044176251715139</v>
+        <v>0.04270521616911834</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4251864654.862448</v>
+        <v>4743472090.775444</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1766607589829144</v>
+        <v>0.1681710607817746</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05587172238553754</v>
+        <v>0.04240842638408145</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4289487386.997636</v>
+        <v>3261570138.68252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07174409802390369</v>
+        <v>0.09612148819507094</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03915026138073077</v>
+        <v>0.02750736004830253</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1411112982.308675</v>
+        <v>1761089730.005195</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1481835350160584</v>
+        <v>0.1646622822525778</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0422980073314513</v>
+        <v>0.03584155551662849</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3447927015.465581</v>
+        <v>3639924582.261342</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1550135177770713</v>
+        <v>0.1410176972950001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05340810999443091</v>
+        <v>0.05226152226814489</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>956569859.5470638</v>
+        <v>994795156.2342923</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1558968847990412</v>
+        <v>0.1295328116858771</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05197992687360265</v>
+        <v>0.03595883505547891</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4614026624.47772</v>
+        <v>4220515325.875759</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1103016131550339</v>
+        <v>0.1244955293191432</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05480700892939912</v>
+        <v>0.04406284715090458</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2840174252.127007</v>
+        <v>2565638728.437041</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1976121161339175</v>
+        <v>0.1622626607172848</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02205420789880109</v>
+        <v>0.03481333144410656</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3619933791.758683</v>
+        <v>4937462692.582857</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1279583618887297</v>
+        <v>0.1405701489932729</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0523246319714109</v>
+        <v>0.04379215403160042</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4914827827.790467</v>
+        <v>3637455976.567071</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1618115215761684</v>
+        <v>0.1364233522952705</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02489076849939966</v>
+        <v>0.02423191412889442</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1343937141.150216</v>
+        <v>1354559182.64407</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1035950858004122</v>
+        <v>0.1389467939785652</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03972379654929339</v>
+        <v>0.03878897646640844</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4481179917.570518</v>
+        <v>3005548438.906478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625015677439765</v>
+        <v>0.1333530411129638</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02402779120375598</v>
+        <v>0.01786245195027582</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1318071079.015548</v>
+        <v>1568276823.661011</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1809516070976991</v>
+        <v>0.1248732453894661</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02640642332598221</v>
+        <v>0.03171441120710605</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5160099781.011997</v>
+        <v>4059437019.418488</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09176044952310303</v>
+        <v>0.09753814326629498</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03470473645431432</v>
+        <v>0.03509157962798923</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3079205091.126087</v>
+        <v>3190681513.583745</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1460001901201023</v>
+        <v>0.1782440728057837</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02246212027959084</v>
+        <v>0.02786660467736157</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3284347418.525068</v>
+        <v>2544300672.775645</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1587796910903698</v>
+        <v>0.1638850453668087</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02936893849882064</v>
+        <v>0.02111706541493299</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1607918955.548598</v>
+        <v>2022725173.365923</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1541939785667556</v>
+        <v>0.1399111726061414</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04168252219589461</v>
+        <v>0.03275491599432447</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4016756969.319335</v>
+        <v>3825959332.429606</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09177821928249112</v>
+        <v>0.09501041994791347</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04415746088973286</v>
+        <v>0.04558134934885206</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3554715136.901675</v>
+        <v>5252661736.841091</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1760637378546112</v>
+        <v>0.1294108092555794</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03128653844818101</v>
+        <v>0.02730624824884879</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5916383854.625816</v>
+        <v>5879771352.437718</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1088956322768507</v>
+        <v>0.1575177334076182</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02262723487124932</v>
+        <v>0.01972596203375492</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5560871965.26943</v>
+        <v>3788758176.88326</v>
       </c>
       <c r="F66" t="n">
-        <v>0.161797249456222</v>
+        <v>0.1545145467754873</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0323960291266257</v>
+        <v>0.03343185412169516</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2519830771.434616</v>
+        <v>2318673943.082126</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09491985426943872</v>
+        <v>0.08825659033173568</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04204148246008493</v>
+        <v>0.03428495374599094</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4111925894.730506</v>
+        <v>4701465789.119878</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1468798721435892</v>
+        <v>0.1104726219790156</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03794865301561069</v>
+        <v>0.04315918656599763</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1825319757.791347</v>
+        <v>1801093107.048691</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1369913907086396</v>
+        <v>0.1220259411221655</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05914459726886936</v>
+        <v>0.05405995556380757</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2595741205.160839</v>
+        <v>2868161343.867756</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07102741595476214</v>
+        <v>0.09467150894253512</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03343406055981156</v>
+        <v>0.03899186988049099</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3409731771.183311</v>
+        <v>5632172405.420551</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1293367318056676</v>
+        <v>0.123669738379615</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0299971387925231</v>
+        <v>0.0216916820856148</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1991047107.677268</v>
+        <v>1788375812.330482</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08108512221375976</v>
+        <v>0.1061514974103461</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05251898205082327</v>
+        <v>0.04031295648355906</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2281431302.658117</v>
+        <v>3220799360.785754</v>
       </c>
       <c r="F73" t="n">
-        <v>0.105859526358349</v>
+        <v>0.1113199285143038</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04272331535077822</v>
+        <v>0.04265053148519295</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2519930605.290894</v>
+        <v>3211996832.39867</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1125273967244978</v>
+        <v>0.1666494063840832</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03255727687876962</v>
+        <v>0.02837402803715308</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1589276039.066209</v>
+        <v>1966414866.897101</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1242473168834081</v>
+        <v>0.1235850919033418</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03479704573366116</v>
+        <v>0.03673928246716206</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3634843163.250852</v>
+        <v>4613171859.090854</v>
       </c>
       <c r="F76" t="n">
-        <v>0.106535806365018</v>
+        <v>0.09312822079113393</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02565528658373133</v>
+        <v>0.02334468462494978</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1750397675.754621</v>
+        <v>1679380043.041185</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1690660898021848</v>
+        <v>0.1753347268967511</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02011852015577939</v>
+        <v>0.02752857803975281</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4127205662.587911</v>
+        <v>4193215399.222848</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08883451880608143</v>
+        <v>0.09555919381806534</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03474763726824704</v>
+        <v>0.0484134694753227</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1543014449.33298</v>
+        <v>1599015637.717123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1369993248788243</v>
+        <v>0.1256670293177434</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02517335400469319</v>
+        <v>0.03238251962991021</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4240378279.221333</v>
+        <v>3874069539.684925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08504493198174073</v>
+        <v>0.07355845257167297</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0301786062120228</v>
+        <v>0.0250278753771142</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4028883205.879359</v>
+        <v>4548129326.249407</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08628713167820755</v>
+        <v>0.1253945262637589</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03259838382589672</v>
+        <v>0.0260964468765331</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4697771435.736422</v>
+        <v>4861844975.393988</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2080877106315838</v>
+        <v>0.1333256673138511</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02879484377936552</v>
+        <v>0.02638417350519952</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2078533033.702864</v>
+        <v>2294959682.656033</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1213556392416581</v>
+        <v>0.1460728540734015</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03858761380317955</v>
+        <v>0.0415572569799667</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2137574588.315686</v>
+        <v>1828222864.048649</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09305671066106704</v>
+        <v>0.1060046608253977</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05083089434863403</v>
+        <v>0.04484623600823905</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2643436450.944283</v>
+        <v>3303107425.294572</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1812616328750968</v>
+        <v>0.1781795036222344</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0535409645411432</v>
+        <v>0.04452329103832804</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2305897598.08922</v>
+        <v>2592860244.27859</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1110469081147007</v>
+        <v>0.1226001057981464</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02317166142131745</v>
+        <v>0.02626612196956712</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1306895652.224594</v>
+        <v>1078274187.286142</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1517110688056207</v>
+        <v>0.1557305596744936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04131085073078262</v>
+        <v>0.03060226611983456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3295802805.175527</v>
+        <v>2276188674.252848</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1646388361821834</v>
+        <v>0.1073590856196934</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02964182415213977</v>
+        <v>0.02822742816579992</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2986186251.051898</v>
+        <v>2536718178.311603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1053299430499673</v>
+        <v>0.1023355462545425</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02968912717696599</v>
+        <v>0.03944121744637254</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1316136910.956313</v>
+        <v>1441870934.615633</v>
       </c>
       <c r="F90" t="n">
-        <v>0.104023784264336</v>
+        <v>0.1205899023223005</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04845746080633554</v>
+        <v>0.04392807427183313</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1657604697.544271</v>
+        <v>1784457464.180342</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1575745856176929</v>
+        <v>0.17681334360495</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05177675168413081</v>
+        <v>0.05992160784203455</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2769127347.889362</v>
+        <v>2345999450.664109</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06761225766221865</v>
+        <v>0.0974387433932021</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03493625018824098</v>
+        <v>0.0426975930535187</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3170214902.157194</v>
+        <v>3693872151.168201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1156004783393243</v>
+        <v>0.1322416436583114</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03827695299512578</v>
+        <v>0.05329525822816836</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1824767442.050428</v>
+        <v>2246742804.822633</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1207885163138161</v>
+        <v>0.1443497193804418</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02900926587815516</v>
+        <v>0.03794933509291666</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2467194453.579859</v>
+        <v>2511382736.343166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1361274410807795</v>
+        <v>0.1357635774225822</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04469662766989459</v>
+        <v>0.04120016310515009</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1539701978.60491</v>
+        <v>1835226557.431447</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1161440520373722</v>
+        <v>0.1224067510878413</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04274140127412773</v>
+        <v>0.03415224775879046</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4012871095.940618</v>
+        <v>3489781797.466657</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1433143378784602</v>
+        <v>0.1619165605032026</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02757462816993581</v>
+        <v>0.02919780152329518</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3404867284.048224</v>
+        <v>2802902156.277607</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08890119688703597</v>
+        <v>0.1261821355339327</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02624698668242833</v>
+        <v>0.02024119075531193</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2335056449.403198</v>
+        <v>2824284104.831204</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1088758798565954</v>
+        <v>0.1296320997668325</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03231307469761798</v>
+        <v>0.03410469069177636</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3707456189.059658</v>
+        <v>3629111173.298048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1790931655084726</v>
+        <v>0.1536184449835238</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02210874611910332</v>
+        <v>0.02819486120467226</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2203833645.728258</v>
+        <v>3312564025.805932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1964114606006742</v>
+        <v>0.142556053872648</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05527781230528354</v>
+        <v>0.03792437888731191</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_307.xlsx
+++ b/output/fit_clients/fit_round_307.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1813321045.699245</v>
+        <v>2426558325.517818</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1056254832888012</v>
+        <v>0.06931408679351292</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03213214932832929</v>
+        <v>0.03401614098443624</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2568578878.53868</v>
+        <v>2399044431.107908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12953755528567</v>
+        <v>0.1442448923827999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04938575832887365</v>
+        <v>0.03748863790788769</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4327745126.433</v>
+        <v>4960205919.244431</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1404949316893883</v>
+        <v>0.10219779807357</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02305782132487458</v>
+        <v>0.0377294728777532</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>161</v>
+      </c>
+      <c r="J4" t="n">
+        <v>307</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3539256240.265812</v>
+        <v>3850127216.756185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07919248810833274</v>
+        <v>0.08525284731669437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04091079345007546</v>
+        <v>0.03668047033634026</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2474802477.607127</v>
+        <v>2148007885.467508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1047627148589886</v>
+        <v>0.1475973775818686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05655412090837619</v>
+        <v>0.05366265915229795</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2151362044.044682</v>
+        <v>3131365312.828269</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08955013352613847</v>
+        <v>0.08287066915557678</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04687573608515766</v>
+        <v>0.04466644689552999</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3928134784.06557</v>
+        <v>3921885603.002105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1812430562833547</v>
+        <v>0.1947727834217124</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02083421041219647</v>
+        <v>0.02470338895513175</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>82</v>
+      </c>
+      <c r="J8" t="n">
+        <v>307</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2106609807.467106</v>
+        <v>2274741063.200096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.130084551504346</v>
+        <v>0.1968167001241338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03290063260250085</v>
+        <v>0.02659652809223236</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4163267357.490786</v>
+        <v>4642351698.289959</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1547133205423302</v>
+        <v>0.1444627905134742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04696831878678356</v>
+        <v>0.04481566829309681</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>270</v>
+      </c>
+      <c r="J10" t="n">
+        <v>307</v>
+      </c>
+      <c r="K10" t="n">
+        <v>80.7284138565298</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3740939872.39058</v>
+        <v>3973677350.905833</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1266944549405495</v>
+        <v>0.1559362991686224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03876465320352749</v>
+        <v>0.03806004802407158</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>123</v>
+      </c>
+      <c r="J11" t="n">
+        <v>306</v>
+      </c>
+      <c r="K11" t="n">
+        <v>74.44490526170625</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2216838827.001305</v>
+        <v>2835097335.578458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1447329086264341</v>
+        <v>0.1709254805293725</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04828451870555622</v>
+        <v>0.03851012311672931</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3641340598.164582</v>
+        <v>4780901085.24182</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08096003175328047</v>
+        <v>0.08253957803187653</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02949518681614371</v>
+        <v>0.03094934789465828</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>158</v>
+      </c>
+      <c r="J13" t="n">
+        <v>307</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3014473580.898561</v>
+        <v>2813381175.233645</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757530766992373</v>
+        <v>0.138320718821782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03134821531207884</v>
+        <v>0.03436719914819195</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1697836616.401121</v>
+        <v>1785288564.748847</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08561536313215384</v>
+        <v>0.06680058519602944</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03827326695809124</v>
+        <v>0.04936507619593005</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2155001529.789433</v>
+        <v>1873590129.229498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119167015458297</v>
+        <v>0.09090206921748076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03232444710261913</v>
+        <v>0.04424778106160731</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4209517873.75908</v>
+        <v>5107133599.654523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1632300159103501</v>
+        <v>0.1244917673477278</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04262629940655598</v>
+        <v>0.04105644167140556</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>145</v>
+      </c>
+      <c r="J17" t="n">
+        <v>307</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3111536422.540487</v>
+        <v>3683072502.83101</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1543288529127673</v>
+        <v>0.1444971909718691</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03339247433211164</v>
+        <v>0.03142143921116073</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1082970641.099916</v>
+        <v>1072368234.663393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1320199524500725</v>
+        <v>0.1904825474064628</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02073730299747689</v>
+        <v>0.02574804997495658</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2069930262.313878</v>
+        <v>1841267703.88962</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1588476433466899</v>
+        <v>0.1548466572999679</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02349656150516929</v>
+        <v>0.02707879662069742</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2204645267.189454</v>
+        <v>2502950751.881151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08755941514619893</v>
+        <v>0.07244651703704777</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04531610633956689</v>
+        <v>0.0364112381027324</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2688945960.646132</v>
+        <v>3330757845.596855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08818661820872198</v>
+        <v>0.09854526627068703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04165050451663345</v>
+        <v>0.04504089431352189</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1547258022.703152</v>
+        <v>1535319620.96324</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1754782086557531</v>
+        <v>0.1256686469377604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03728835688188142</v>
+        <v>0.05198256358211992</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1275,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3315097532.942479</v>
+        <v>3145307921.172872</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09048753843370082</v>
+        <v>0.1172884385987072</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02550541908267681</v>
+        <v>0.03144142164900757</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>91</v>
+      </c>
+      <c r="J24" t="n">
+        <v>306</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39.74488345711494</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>962542348.1084456</v>
+        <v>1163437242.934329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0892830964650641</v>
+        <v>0.09271216082014097</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02605555557936602</v>
+        <v>0.03082810561965119</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1026339689.227577</v>
+        <v>987330179.4643251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09722318769233947</v>
+        <v>0.09828715841177212</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0262158906800611</v>
+        <v>0.03185000545516333</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3697366641.963164</v>
+        <v>3775135831.610962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.137817137848992</v>
+        <v>0.1354930768501175</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02610083580939103</v>
+        <v>0.02321396833738586</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>127</v>
+      </c>
+      <c r="J27" t="n">
+        <v>307</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1417,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3495751707.055806</v>
+        <v>3157372091.551312</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1407847135579536</v>
+        <v>0.1362382261940341</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03199609053853284</v>
+        <v>0.04664072761816509</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>306</v>
+      </c>
+      <c r="K28" t="n">
+        <v>46.05783993833654</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3680483763.027212</v>
+        <v>3786235389.506788</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1118131895906744</v>
+        <v>0.1501155942882089</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03927784858278836</v>
+        <v>0.03654208170807254</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>287</v>
+      </c>
+      <c r="J29" t="n">
+        <v>306</v>
+      </c>
+      <c r="K29" t="n">
+        <v>58.68388459174837</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1461441827.347387</v>
+        <v>2168860925.203224</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1124375663309315</v>
+        <v>0.09713536516602861</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03971601456511241</v>
+        <v>0.03054367014805223</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1349534159.768593</v>
+        <v>1084308554.688294</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07944553264485989</v>
+        <v>0.0774842662644557</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04224891304454981</v>
+        <v>0.03514225421501545</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1205434281.241184</v>
+        <v>1279669122.942808</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09215829825044831</v>
+        <v>0.1037808940572518</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03159229938533396</v>
+        <v>0.02974683359211699</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2114224776.072176</v>
+        <v>2151389073.94843</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1687892295453843</v>
+        <v>0.1636489780877717</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04060527108196294</v>
+        <v>0.04055979775198705</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1011637856.872031</v>
+        <v>1185191101.207061</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08296358401003755</v>
+        <v>0.1127118833286164</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01859716287373697</v>
+        <v>0.01831552887755562</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953586015.8465682</v>
+        <v>1135255512.721204</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07528433912207329</v>
+        <v>0.1000149889422661</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03354927088428927</v>
+        <v>0.04486576946583357</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2166321546.067311</v>
+        <v>2561329000.616207</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1436986416194649</v>
+        <v>0.1196769423421941</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02026766678266829</v>
+        <v>0.02058539958372691</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2502120082.054216</v>
+        <v>2105254193.608318</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0772841878368563</v>
+        <v>0.08592234777263115</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02897522558117503</v>
+        <v>0.04127433302437291</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1940859793.993671</v>
+        <v>1548053499.627086</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1072321140597828</v>
+        <v>0.1033722054963442</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03444471667426293</v>
+        <v>0.03522381296300552</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2193298540.169892</v>
+        <v>1711632849.763698</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1310576542485484</v>
+        <v>0.1893333244129648</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02429265086055506</v>
+        <v>0.02084755423573393</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1461980767.212923</v>
+        <v>1517898861.211892</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1081538492585549</v>
+        <v>0.1417755670909712</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04829350661340101</v>
+        <v>0.04831504636708368</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2727558155.838104</v>
+        <v>1971542575.70504</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1656663197094188</v>
+        <v>0.1181529695795451</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03270083491038522</v>
+        <v>0.04661567981662464</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3473778220.495858</v>
+        <v>2618753004.497957</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1128870482937309</v>
+        <v>0.118057836139135</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03384846365117761</v>
+        <v>0.04275805437847963</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>126</v>
+      </c>
+      <c r="J42" t="n">
+        <v>304</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2243890826.158214</v>
+        <v>2486418258.120409</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1620804348223098</v>
+        <v>0.1814720156432341</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01948395760469207</v>
+        <v>0.02345439851629094</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2279781220.715204</v>
+        <v>2170217980.14569</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07880139229503441</v>
+        <v>0.06583687950808746</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03058392310162168</v>
+        <v>0.03048811116106189</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2416736090.264214</v>
+        <v>1657312466.807685</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1553481695307352</v>
+        <v>0.1225662193078774</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04358739576665055</v>
+        <v>0.05510509356815572</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2051,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5037348905.375824</v>
+        <v>4788493465.787931</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1125371016475892</v>
+        <v>0.1182412997498799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04270521616911834</v>
+        <v>0.0605709638312559</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>183</v>
+      </c>
+      <c r="J46" t="n">
+        <v>307</v>
+      </c>
+      <c r="K46" t="n">
+        <v>81.23773107627112</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4743472090.775444</v>
+        <v>4374913242.387042</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1681710607817746</v>
+        <v>0.1885270936752206</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04240842638408145</v>
+        <v>0.0468558173774354</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>137</v>
+      </c>
+      <c r="J47" t="n">
+        <v>306</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67.05270614908032</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3261570138.68252</v>
+        <v>3289806872.159153</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09612148819507094</v>
+        <v>0.1002934798497442</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02750736004830253</v>
+        <v>0.02547726817033359</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>154</v>
+      </c>
+      <c r="J48" t="n">
+        <v>306</v>
+      </c>
+      <c r="K48" t="n">
+        <v>47.36582304973265</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1761089730.005195</v>
+        <v>1652000385.03253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1646622822525778</v>
+        <v>0.155461836502413</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03584155551662849</v>
+        <v>0.03803645150726178</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3639924582.261342</v>
+        <v>2971962504.982832</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1410176972950001</v>
+        <v>0.1627713497556932</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05226152226814489</v>
+        <v>0.03663699449788129</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>97</v>
+      </c>
+      <c r="J50" t="n">
+        <v>306</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.91077334402212</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>994795156.2342923</v>
+        <v>1016551360.285169</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1295328116858771</v>
+        <v>0.179356560885259</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03595883505547891</v>
+        <v>0.04669134252485727</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2269,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4220515325.875759</v>
+        <v>4565197229.158887</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1244955293191432</v>
+        <v>0.1359531344760307</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04406284715090458</v>
+        <v>0.03840881349366985</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>188</v>
+      </c>
+      <c r="J52" t="n">
+        <v>306</v>
+      </c>
+      <c r="K52" t="n">
+        <v>79.17833979338445</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2565638728.437041</v>
+        <v>2623270423.440055</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1622626607172848</v>
+        <v>0.1573317477084947</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03481333144410656</v>
+        <v>0.02194270549518239</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>306</v>
+      </c>
+      <c r="K53" t="n">
+        <v>30.30060681380051</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4937462692.582857</v>
+        <v>3683090179.315597</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1405701489932729</v>
+        <v>0.1241627013746846</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04379215403160042</v>
+        <v>0.0358998371662478</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>160</v>
+      </c>
+      <c r="J54" t="n">
+        <v>307</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3637455976.567071</v>
+        <v>4452630410.084887</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1364233522952705</v>
+        <v>0.2049623788544459</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02423191412889442</v>
+        <v>0.02736626954064541</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>142</v>
+      </c>
+      <c r="J55" t="n">
+        <v>306</v>
+      </c>
+      <c r="K55" t="n">
+        <v>79.61210382388825</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1354559182.64407</v>
+        <v>1502710745.955275</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1389467939785652</v>
+        <v>0.1611395821855389</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03878897646640844</v>
+        <v>0.05548039974325786</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3005548438.906478</v>
+        <v>4091190154.584315</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1333530411129638</v>
+        <v>0.1580536019708723</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01786245195027582</v>
+        <v>0.02256034814551457</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>126</v>
+      </c>
+      <c r="J57" t="n">
+        <v>307</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1568276823.661011</v>
+        <v>1591013504.652239</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1248732453894661</v>
+        <v>0.1278714083058941</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03171441120710605</v>
+        <v>0.02495158512195798</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4059437019.418488</v>
+        <v>4278301632.105587</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09753814326629498</v>
+        <v>0.08313379561356415</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03509157962798923</v>
+        <v>0.03217885381771448</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>148</v>
+      </c>
+      <c r="J59" t="n">
+        <v>307</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3190681513.583745</v>
+        <v>3293074434.752607</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1782440728057837</v>
+        <v>0.1768977849024505</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02786660467736157</v>
+        <v>0.02175745151848658</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>52</v>
+      </c>
+      <c r="J60" t="n">
+        <v>305</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2544300672.775645</v>
+        <v>2552602824.303576</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1638850453668087</v>
+        <v>0.1249387116138921</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02111706541493299</v>
+        <v>0.02688473865971744</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2022725173.365923</v>
+        <v>1929453181.407849</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1399111726061414</v>
+        <v>0.1474980182010248</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03275491599432447</v>
+        <v>0.03299490893264009</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3825959332.429606</v>
+        <v>4636677745.6901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09501041994791347</v>
+        <v>0.09746916411436864</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04558134934885206</v>
+        <v>0.03465898873267827</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>149</v>
+      </c>
+      <c r="J63" t="n">
+        <v>307</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5252661736.841091</v>
+        <v>4821046194.838681</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1294108092555794</v>
+        <v>0.1461762576368076</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02730624824884879</v>
+        <v>0.03553317452849367</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>151</v>
+      </c>
+      <c r="J64" t="n">
+        <v>306</v>
+      </c>
+      <c r="K64" t="n">
+        <v>77.78301501648573</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5879771352.437718</v>
+        <v>5913437655.561401</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1575177334076182</v>
+        <v>0.1531889757111747</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01972596203375492</v>
+        <v>0.02343036965617338</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>244</v>
+      </c>
+      <c r="J65" t="n">
+        <v>306</v>
+      </c>
+      <c r="K65" t="n">
+        <v>78.40148282751669</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3788758176.88326</v>
+        <v>4860654642.23352</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1545145467754873</v>
+        <v>0.1156661671165838</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03343185412169516</v>
+        <v>0.03236535067513527</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>151</v>
+      </c>
+      <c r="J66" t="n">
+        <v>307</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2318673943.082126</v>
+        <v>3035664320.854546</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08825659033173568</v>
+        <v>0.07415099776875814</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428495374599094</v>
+        <v>0.04507261326739945</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4701465789.119878</v>
+        <v>4841655198.213348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1104726219790156</v>
+        <v>0.1385885743952467</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04315918656599763</v>
+        <v>0.04701770301553068</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>165</v>
+      </c>
+      <c r="J68" t="n">
+        <v>306</v>
+      </c>
+      <c r="K68" t="n">
+        <v>80.29823893087895</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1801093107.048691</v>
+        <v>2369616005.333954</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1220259411221655</v>
+        <v>0.142008667544639</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05405995556380757</v>
+        <v>0.04281009837588917</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2868161343.867756</v>
+        <v>2393752215.535478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09467150894253512</v>
+        <v>0.07590546982032495</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03899186988049099</v>
+        <v>0.04652336741220556</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5632172405.420551</v>
+        <v>5644406486.463267</v>
       </c>
       <c r="F71" t="n">
-        <v>0.123669738379615</v>
+        <v>0.1430137468338909</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0216916820856148</v>
+        <v>0.02553633996953925</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>228</v>
+      </c>
+      <c r="J71" t="n">
+        <v>307</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1788375812.330482</v>
+        <v>1682599526.863668</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1061514974103461</v>
+        <v>0.09037681449665934</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04031295648355906</v>
+        <v>0.05096796132010774</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3220799360.785754</v>
+        <v>3096275701.194248</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1113199285143038</v>
+        <v>0.1114129433697256</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04265053148519295</v>
+        <v>0.04933096025321956</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>21</v>
+      </c>
+      <c r="J73" t="n">
+        <v>305</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3211996832.39867</v>
+        <v>3644740232.109625</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1666494063840832</v>
+        <v>0.1671179840722655</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02837402803715308</v>
+        <v>0.02814637273822586</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1966414866.897101</v>
+        <v>2475475205.974381</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1235850919033418</v>
+        <v>0.1495607064038838</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03673928246716206</v>
+        <v>0.03181935063927283</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4613171859.090854</v>
+        <v>4461263718.389277</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09312822079113393</v>
+        <v>0.07682859668486794</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02334468462494978</v>
+        <v>0.02140357398628738</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>144</v>
+      </c>
+      <c r="J76" t="n">
+        <v>307</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1679380043.041185</v>
+        <v>1466200159.766196</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1753347268967511</v>
+        <v>0.1444722806165677</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02752857803975281</v>
+        <v>0.02893900598001165</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4193215399.222848</v>
+        <v>3399037356.915958</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09555919381806534</v>
+        <v>0.08948156048912895</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0484134694753227</v>
+        <v>0.04073780260724835</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>152</v>
+      </c>
+      <c r="J78" t="n">
+        <v>305</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1599015637.717123</v>
+        <v>1434243284.953223</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1256670293177434</v>
+        <v>0.1738331458443494</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03238251962991021</v>
+        <v>0.03622601019597932</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3874069539.684925</v>
+        <v>5436646405.825085</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07355845257167297</v>
+        <v>0.08226856343356374</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0250278753771142</v>
+        <v>0.02474521729078876</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>150</v>
+      </c>
+      <c r="J80" t="n">
+        <v>306</v>
+      </c>
+      <c r="K80" t="n">
+        <v>60.75244427367491</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4548129326.249407</v>
+        <v>5220625965.392176</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1253945262637589</v>
+        <v>0.1012442231091846</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0260964468765331</v>
+        <v>0.02004477683644048</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>141</v>
+      </c>
+      <c r="J81" t="n">
+        <v>307</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4861844975.393988</v>
+        <v>5525514420.733267</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333256673138511</v>
+        <v>0.2005219898689388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02638417350519952</v>
+        <v>0.02663415767344247</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>223</v>
+      </c>
+      <c r="J82" t="n">
+        <v>307</v>
+      </c>
+      <c r="K82" t="n">
+        <v>80.63548048637487</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2294959682.656033</v>
+        <v>2286195606.843781</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1460728540734015</v>
+        <v>0.1552218221639468</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0415572569799667</v>
+        <v>0.03171416852678023</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1828222864.048649</v>
+        <v>2081920685.861371</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1060046608253977</v>
+        <v>0.09595639012520948</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04484623600823905</v>
+        <v>0.04425284645727209</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3303107425.294572</v>
+        <v>2937136281.926596</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1781795036222344</v>
+        <v>0.1663573827546924</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04452329103832804</v>
+        <v>0.04672453741254674</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2592860244.27859</v>
+        <v>2209817321.459633</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1226001057981464</v>
+        <v>0.1637489576953237</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02626612196956712</v>
+        <v>0.02442605301947097</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1078274187.286142</v>
+        <v>1108848504.825439</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1557305596744936</v>
+        <v>0.1471769702632298</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03060226611983456</v>
+        <v>0.03052675002873556</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2276188674.252848</v>
+        <v>2493188268.860114</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1073590856196934</v>
+        <v>0.1756636357771143</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02822742816579992</v>
+        <v>0.03670565222889115</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2536718178.311603</v>
+        <v>3506286227.040518</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1023355462545425</v>
+        <v>0.0968069052805284</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03944121744637254</v>
+        <v>0.03724240358401826</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1441870934.615633</v>
+        <v>1570979076.277095</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1205899023223005</v>
+        <v>0.09524626019351509</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04392807427183313</v>
+        <v>0.05525633503590983</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1784457464.180342</v>
+        <v>1957972234.939878</v>
       </c>
       <c r="F91" t="n">
-        <v>0.17681334360495</v>
+        <v>0.1352278245805877</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05992160784203455</v>
+        <v>0.05035624704744479</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2345999450.664109</v>
+        <v>1844242527.736286</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0974387433932021</v>
+        <v>0.06822961855523033</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0426975930535187</v>
+        <v>0.0348837923135002</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3693872151.168201</v>
+        <v>4588350183.681597</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1322416436583114</v>
+        <v>0.1112265193127236</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05329525822816836</v>
+        <v>0.0459243009430016</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>137</v>
+      </c>
+      <c r="J93" t="n">
+        <v>307</v>
+      </c>
+      <c r="K93" t="n">
+        <v>81.70443379871378</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2246742804.822633</v>
+        <v>2145544760.475394</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1443497193804418</v>
+        <v>0.168641972361215</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03794933509291666</v>
+        <v>0.02881070374275695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2511382736.343166</v>
+        <v>2262967370.87947</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1357635774225822</v>
+        <v>0.1270028296687089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04120016310515009</v>
+        <v>0.04917512881974192</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1835226557.431447</v>
+        <v>1534608591.860258</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1224067510878413</v>
+        <v>0.1138761933678389</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03415224775879046</v>
+        <v>0.04347048983196899</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3489781797.466657</v>
+        <v>5052044124.638516</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1619165605032026</v>
+        <v>0.1697637668949189</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02919780152329518</v>
+        <v>0.01807205069495872</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>154</v>
+      </c>
+      <c r="J97" t="n">
+        <v>307</v>
+      </c>
+      <c r="K97" t="n">
+        <v>82.45708771458399</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2802902156.277607</v>
+        <v>2768656507.232509</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1261821355339327</v>
+        <v>0.09703438261361651</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02024119075531193</v>
+        <v>0.02338242690396152</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>76</v>
+      </c>
+      <c r="J98" t="n">
+        <v>306</v>
+      </c>
+      <c r="K98" t="n">
+        <v>31.40581285256527</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2824284104.831204</v>
+        <v>2564487990.033589</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1296320997668325</v>
+        <v>0.09032801179303628</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03410469069177636</v>
+        <v>0.03281492931492987</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3629111173.298048</v>
+        <v>3788446383.195419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1536184449835238</v>
+        <v>0.1120719076061839</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02819486120467226</v>
+        <v>0.01917262287431438</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>133</v>
+      </c>
+      <c r="J100" t="n">
+        <v>307</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3312564025.805932</v>
+        <v>2502769095.483039</v>
       </c>
       <c r="F101" t="n">
-        <v>0.142556053872648</v>
+        <v>0.1709043656208631</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03792437888731191</v>
+        <v>0.04412608623903363</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
